--- a/docs/specimen-uv-ips.xlsx
+++ b/docs/specimen-uv-ips.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7387" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7385" uniqueCount="568">
   <si>
     <t>Path</t>
   </si>
@@ -941,7 +941,7 @@
     <t>Specimen.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/ips/StructureDefinition/patient-uv-ips]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient]]}
 </t>
   </si>
   <si>
@@ -1246,14 +1246,10 @@
     <t>Specimen.collection.method</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[CanonicalType[http://hl7.org/fhir/ips/StructureDefinition/CodeableConcept-uv-ips]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Concept - reference to a terminology or just  text</t>
-  </si>
-  <si>
-    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
+    <t>Technique used to perform collection</t>
+  </si>
+  <si>
+    <t>A coded value specifying the technique that is used to perform the procedure.</t>
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
@@ -1277,6 +1273,9 @@
     <t>Specimen.collection.method.coding</t>
   </si>
   <si>
+    <t xml:space="preserve">http://trilliumbridge.eu/fhir/ValueSet/specimen-collection-method </t>
+  </si>
+  <si>
     <t>Specimen.collection.method.coding.id</t>
   </si>
   <si>
@@ -1302,6 +1301,15 @@
   </si>
   <si>
     <t>Specimen.collection.bodySite</t>
+  </si>
+  <si>
+    <t>Anatomical collection site</t>
+  </si>
+  <si>
+    <t>Anatomical location from which the specimen was collected (if subject is a patient). This is the target site.  This element is not used for environmental specimens.</t>
+  </si>
+  <si>
+    <t>If the use case requires  BodySite to be handled as a separate resource instead of an inline coded element (e.g. to identify and track separately)  then use the standard extension [body-site-instance](extension-body-site-instance.html).</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1940,7 +1948,7 @@
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.66015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.7578125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -8824,7 +8832,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
         <v>276</v>
       </c>
@@ -8840,7 +8848,7 @@
         <v>44</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>36</v>
@@ -10024,7 +10032,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
         <v>296</v>
       </c>
@@ -10040,7 +10048,7 @@
         <v>44</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>36</v>
@@ -10323,7 +10331,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
         <v>304</v>
       </c>
@@ -10339,7 +10347,7 @@
         <v>44</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>36</v>
@@ -10435,7 +10443,7 @@
         <v>37</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>36</v>
@@ -10633,7 +10641,7 @@
         <v>37</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>36</v>
@@ -10730,7 +10738,7 @@
         <v>37</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>36</v>
@@ -11324,7 +11332,7 @@
         <v>37</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>36</v>
@@ -11905,7 +11913,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
         <v>330</v>
       </c>
@@ -11921,7 +11929,7 @@
         <v>44</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>36</v>
@@ -12312,7 +12320,7 @@
         <v>37</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>36</v>
@@ -13003,7 +13011,7 @@
         <v>37</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>36</v>
@@ -13794,7 +13802,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
         <v>394</v>
       </c>
@@ -13807,10 +13815,10 @@
         <v>37</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>36</v>
@@ -13819,16 +13827,16 @@
         <v>36</v>
       </c>
       <c r="J120" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K120" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="K120" t="s" s="2">
+      <c r="L120" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="M120" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
@@ -13854,13 +13862,13 @@
         <v>36</v>
       </c>
       <c r="W120" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="X120" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="X120" t="s" s="2">
+      <c r="Y120" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>36</v>
@@ -13895,7 +13903,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -13994,7 +14002,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -14093,7 +14101,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -14116,16 +14124,16 @@
         <v>45</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>137</v>
+        <v>285</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>138</v>
+        <v>286</v>
       </c>
       <c r="L123" t="s" s="2">
         <v>139</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>140</v>
+        <v>287</v>
       </c>
       <c r="N123" t="s" s="2">
         <v>141</v>
@@ -14153,13 +14161,11 @@
         <v>36</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="X123" s="2"/>
       <c r="Y123" t="s" s="2">
-        <v>36</v>
+        <v>404</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>36</v>
@@ -14994,7 +15000,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
         <v>413</v>
       </c>
@@ -15007,10 +15013,10 @@
         <v>37</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>36</v>
@@ -15019,16 +15025,16 @@
         <v>36</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>395</v>
+        <v>126</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
@@ -15054,13 +15060,13 @@
         <v>36</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Z132" t="s" s="2">
         <v>36</v>
@@ -15095,7 +15101,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -15194,7 +15200,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -15293,7 +15299,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -15316,16 +15322,16 @@
         <v>45</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>137</v>
+        <v>285</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>138</v>
+        <v>286</v>
       </c>
       <c r="L135" t="s" s="2">
         <v>139</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>140</v>
+        <v>287</v>
       </c>
       <c r="N135" t="s" s="2">
         <v>141</v>
@@ -15353,13 +15359,11 @@
         <v>36</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="X135" s="2"/>
       <c r="Y135" t="s" s="2">
-        <v>36</v>
+        <v>418</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>36</v>
@@ -15394,7 +15398,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -15493,7 +15497,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -15592,7 +15596,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -15693,7 +15697,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -15792,7 +15796,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -15893,7 +15897,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -15994,7 +15998,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -16095,7 +16099,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -16196,7 +16200,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -16207,7 +16211,7 @@
         <v>37</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>36</v>
@@ -16222,10 +16226,10 @@
         <v>331</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -16276,7 +16280,7 @@
         <v>36</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>37</v>
@@ -16293,7 +16297,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -16392,7 +16396,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -16491,7 +16495,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -16590,7 +16594,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -16616,10 +16620,10 @@
         <v>108</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M148" t="s" s="2">
         <v>111</v>
@@ -16672,7 +16676,7 @@
         <v>36</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>37</v>
@@ -16689,7 +16693,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -16715,13 +16719,13 @@
         <v>126</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
@@ -16747,31 +16751,31 @@
         <v>36</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="X149" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE149" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="Y149" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>37</v>
@@ -16788,7 +16792,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -16887,7 +16891,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -16986,7 +16990,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -17087,7 +17091,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -17186,7 +17190,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -17285,7 +17289,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -17386,7 +17390,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -17485,7 +17489,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -17586,7 +17590,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -17687,7 +17691,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -17788,7 +17792,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -17889,7 +17893,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -17912,13 +17916,13 @@
         <v>36</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M161" t="s" s="2">
         <v>300</v>
@@ -17971,7 +17975,7 @@
         <v>36</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>37</v>
@@ -17988,7 +17992,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -18087,7 +18091,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -18186,7 +18190,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -18285,7 +18289,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -18384,7 +18388,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -18483,7 +18487,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -18509,10 +18513,10 @@
         <v>350</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -18563,7 +18567,7 @@
         <v>36</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>37</v>
@@ -18580,7 +18584,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -18591,7 +18595,7 @@
         <v>37</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>36</v>
@@ -18606,10 +18610,10 @@
         <v>331</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -18660,7 +18664,7 @@
         <v>36</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>37</v>
@@ -18677,7 +18681,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -18776,7 +18780,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -18875,7 +18879,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -18974,7 +18978,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -19000,10 +19004,10 @@
         <v>104</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -19054,7 +19058,7 @@
         <v>36</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>37</v>
@@ -19071,7 +19075,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -19170,7 +19174,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -19269,7 +19273,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -19370,7 +19374,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -19471,7 +19475,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -19570,7 +19574,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -19669,7 +19673,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -19770,7 +19774,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -19869,7 +19873,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -19968,7 +19972,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -20069,7 +20073,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -20168,7 +20172,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -20269,7 +20273,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -20370,7 +20374,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -20471,7 +20475,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -20572,7 +20576,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -20673,7 +20677,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -20772,7 +20776,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -20871,7 +20875,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -20970,7 +20974,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -21069,7 +21073,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -21168,7 +21172,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -21269,7 +21273,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -21368,7 +21372,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -21467,7 +21471,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -21566,7 +21570,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -21665,7 +21669,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -21764,7 +21768,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -21863,7 +21867,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -21889,10 +21893,10 @@
         <v>108</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="M201" t="s" s="2">
         <v>111</v>
@@ -21945,7 +21949,7 @@
         <v>36</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>37</v>
@@ -21962,7 +21966,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -21988,13 +21992,13 @@
         <v>126</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" t="s" s="2">
@@ -22020,31 +22024,31 @@
         <v>36</v>
       </c>
       <c r="W202" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="X202" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="Y202" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="Z202" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA202" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB202" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC202" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD202" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE202" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="Y202" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="Z202" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA202" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB202" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC202" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD202" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE202" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>37</v>
@@ -22061,7 +22065,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -22160,7 +22164,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -22259,7 +22263,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -22360,7 +22364,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -22459,7 +22463,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -22558,7 +22562,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -22659,7 +22663,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -22758,7 +22762,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -22859,7 +22863,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -22960,7 +22964,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -23061,7 +23065,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -23162,7 +23166,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -23188,10 +23192,10 @@
         <v>354</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="M214" t="s" s="2">
         <v>357</v>
@@ -23244,7 +23248,7 @@
         <v>36</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>37</v>
@@ -23261,7 +23265,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -23360,7 +23364,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -23459,7 +23463,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -23560,7 +23564,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -23663,7 +23667,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -23764,7 +23768,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -23865,7 +23869,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -23966,7 +23970,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -23992,10 +23996,10 @@
         <v>354</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="M222" t="s" s="2">
         <v>357</v>
@@ -24048,7 +24052,7 @@
         <v>36</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>37</v>
@@ -24065,7 +24069,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -24164,7 +24168,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -24263,7 +24267,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -24364,7 +24368,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -24467,7 +24471,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -24568,7 +24572,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -24669,7 +24673,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -24770,7 +24774,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -24793,16 +24797,16 @@
         <v>36</v>
       </c>
       <c r="J230" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" t="s" s="2">
@@ -24828,13 +24832,13 @@
         <v>36</v>
       </c>
       <c r="W230" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="X230" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="Y230" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="Z230" t="s" s="2">
         <v>36</v>
@@ -24852,7 +24856,7 @@
         <v>36</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>37</v>
@@ -24869,7 +24873,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -24892,16 +24896,16 @@
         <v>36</v>
       </c>
       <c r="J231" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="K231" t="s" s="2">
         <v>12</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" t="s" s="2">
@@ -24951,7 +24955,7 @@
         <v>36</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>37</v>
@@ -24968,7 +24972,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -25067,7 +25071,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -25166,7 +25170,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -25189,13 +25193,13 @@
         <v>45</v>
       </c>
       <c r="J234" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="M234" t="s" s="2">
         <v>300</v>
@@ -25248,7 +25252,7 @@
         <v>36</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>37</v>
@@ -25265,7 +25269,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -25291,10 +25295,10 @@
         <v>202</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
@@ -25345,7 +25349,7 @@
         <v>36</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>37</v>
@@ -25362,7 +25366,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -25388,10 +25392,10 @@
         <v>108</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="M236" t="s" s="2">
         <v>111</v>
@@ -25444,7 +25448,7 @@
         <v>36</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>44</v>
